--- a/VibeAndSeek.xlsx
+++ b/VibeAndSeek.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\VibeAndSeek\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675A039D-C2B0-4F25-B477-436F440CF627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1644" yWindow="2592" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Φύλλο1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Users" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Locations" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Coupons" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Profile_preferences" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Posts" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Challenges" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="User_Preferences" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="User_Whishlist" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="User_Visited" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="User_Coupons" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Locations_Preferences" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="User_Liked_Posts" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="User_Challenges" sheetId="14" r:id="rId17"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="2" r:id="rId2"/>
+    <sheet name="Locations" sheetId="3" r:id="rId3"/>
+    <sheet name="Coupons" sheetId="4" r:id="rId4"/>
+    <sheet name="Profile_preferences" sheetId="5" r:id="rId5"/>
+    <sheet name="Posts" sheetId="6" r:id="rId6"/>
+    <sheet name="Challenges" sheetId="7" r:id="rId7"/>
+    <sheet name="User_Preferences" sheetId="8" r:id="rId8"/>
+    <sheet name="User_Whishlist" sheetId="9" r:id="rId9"/>
+    <sheet name="User_Visited" sheetId="10" r:id="rId10"/>
+    <sheet name="User_Coupons" sheetId="11" r:id="rId11"/>
+    <sheet name="Locations_Preferences" sheetId="12" r:id="rId12"/>
+    <sheet name="User_Liked_Posts" sheetId="13" r:id="rId13"/>
+    <sheet name="User_Challenges" sheetId="14" r:id="rId14"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -404,26 +413,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -433,97 +444,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -713,28 +672,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.0"/>
-    <col customWidth="1" min="2" max="2" width="12.75"/>
-    <col customWidth="1" min="3" max="3" width="16.0"/>
-    <col customWidth="1" min="6" max="6" width="15.38"/>
-    <col customWidth="1" min="7" max="7" width="25.38"/>
-    <col customWidth="1" min="8" max="8" width="15.13"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,7 +715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -764,7 +726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -775,7 +737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -786,7 +748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -797,7 +759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -808,7 +770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -819,7 +781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -830,7 +792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -841,7 +803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -852,7 +814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -863,18 +825,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -882,208 +844,209 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G14" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="4"/>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="11.25"/>
-    <col customWidth="1" min="4" max="4" width="44.25"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="44.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>110</v>
       </c>
@@ -1091,7 +1054,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -1102,30 +1065,31 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="31.75"/>
+    <col min="4" max="4" width="31.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>113</v>
       </c>
@@ -1133,7 +1097,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -1145,26 +1109,27 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.0"/>
-    <col customWidth="1" min="2" max="2" width="14.88"/>
-    <col customWidth="1" min="4" max="4" width="28.88"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>116</v>
       </c>
@@ -1172,7 +1137,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>108</v>
       </c>
@@ -1184,25 +1149,26 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.0"/>
-    <col customWidth="1" min="4" max="4" width="41.5"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>118</v>
       </c>
@@ -1210,7 +1176,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -1221,31 +1187,32 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.0"/>
-    <col customWidth="1" min="4" max="4" width="29.5"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
@@ -1253,7 +1220,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -1264,32 +1231,33 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -1307,29 +1275,30 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="21.63"/>
+    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
@@ -1353,29 +1322,30 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="16.5"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -1390,29 +1360,30 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.0"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>93</v>
       </c>
@@ -1421,143 +1392,149 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>103</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.38"/>
-    <col customWidth="1" min="2" max="2" width="14.88"/>
-    <col customWidth="1" min="4" max="4" width="24.63"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="4" max="4" width="22.38"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1565,6 +1542,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>